--- a/spreadsheets/Kassadin.xlsx
+++ b/spreadsheets/Kassadin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\champsgg\champion files\sent out\completed\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sunny\champs.gg\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFCBFD87-B48E-4BB4-A7D3-F06783D721BC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D84A46-B32E-49D3-B093-EDD2BED63A48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="991" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1410" yWindow="3135" windowWidth="16875" windowHeight="10523" tabRatio="991" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -379,9 +379,6 @@
     <t>Keep the middle of the lane warded to know where Twisted Fate is heading towards with his ultimate. Use your Q to soak his red card splash damage when waveclearing and when he has no card or didn't lock in a gold, go for R trades. You can chase him down when he's looking for an ult to threaten using your Q to cancel his R.</t>
   </si>
   <si>
-    <t>Vegiar</t>
-  </si>
-  <si>
     <t>Veigar shouldn't really be dying to Kassadin and you're both given a farm lane here. Once he has GLP, you don't want to try to use your R to trade onto him when he has his cage. Sidelane against him as he's a better teamfighter.</t>
   </si>
   <si>
@@ -434,6 +431,9 @@
   </si>
   <si>
     <t>https://i.imgur.com/drLnX41.jpg</t>
+  </si>
+  <si>
+    <t>Veigar</t>
   </si>
 </sst>
 </file>
@@ -895,20 +895,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.5703125"/>
-    <col min="2" max="2" width="115.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.59765625"/>
+    <col min="2" max="2" width="115.86328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9"/>
-    <col min="4" max="4" width="9.5703125"/>
-    <col min="5" max="1025" width="8.5703125"/>
+    <col min="4" max="4" width="9.59765625"/>
+    <col min="5" max="1025" width="8.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -919,7 +919,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -930,7 +930,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -941,7 +941,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -949,7 +949,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -960,7 +960,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -971,7 +971,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -979,18 +979,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -998,7 +998,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
       <c r="C14" s="1" t="s">
         <v>24</v>
       </c>
@@ -1033,19 +1033,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V27" sqref="V27"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.28515625"/>
-    <col min="2" max="2" width="8.5703125"/>
-    <col min="3" max="3" width="255.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="1025" width="8.5703125"/>
+    <col min="1" max="1" width="13.265625"/>
+    <col min="2" max="2" width="8.59765625"/>
+    <col min="3" max="3" width="255.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="1025" width="8.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -1070,7 +1070,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -1084,7 +1084,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -1098,7 +1098,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -1112,7 +1112,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -1126,7 +1126,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -1140,7 +1140,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>49</v>
       </c>
@@ -1162,7 +1162,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>51</v>
       </c>
@@ -1173,7 +1173,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>53</v>
       </c>
@@ -1184,7 +1184,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>55</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>57</v>
       </c>
@@ -1206,7 +1206,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>59</v>
       </c>
@@ -1217,7 +1217,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>61</v>
       </c>
@@ -1228,7 +1228,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>63</v>
       </c>
@@ -1239,7 +1239,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>65</v>
       </c>
@@ -1250,7 +1250,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>67</v>
       </c>
@@ -1261,7 +1261,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>69</v>
       </c>
@@ -1272,7 +1272,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>71</v>
       </c>
@@ -1283,7 +1283,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>73</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>75</v>
       </c>
@@ -1305,7 +1305,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>77</v>
       </c>
@@ -1316,7 +1316,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>79</v>
       </c>
@@ -1327,7 +1327,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>81</v>
       </c>
@@ -1338,7 +1338,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>83</v>
       </c>
@@ -1349,7 +1349,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>85</v>
       </c>
@@ -1360,7 +1360,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>87</v>
       </c>
@@ -1371,7 +1371,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>89</v>
       </c>
@@ -1382,7 +1382,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>91</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>93</v>
       </c>
@@ -1404,7 +1404,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>95</v>
       </c>
@@ -1415,7 +1415,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>97</v>
       </c>
@@ -1426,7 +1426,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>99</v>
       </c>
@@ -1437,7 +1437,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>101</v>
       </c>
@@ -1448,7 +1448,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>103</v>
       </c>
@@ -1459,7 +1459,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>105</v>
       </c>
@@ -1470,103 +1470,103 @@
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="B38">
         <v>6</v>
       </c>
       <c r="C38" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
         <v>108</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>109</v>
       </c>
       <c r="B39">
         <v>4</v>
       </c>
       <c r="C39" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
         <v>110</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>111</v>
       </c>
       <c r="B40">
         <v>5</v>
       </c>
       <c r="C40" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
         <v>112</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>113</v>
       </c>
       <c r="B41">
         <v>5</v>
       </c>
       <c r="C41" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
         <v>114</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>115</v>
       </c>
       <c r="B42">
         <v>4.5</v>
       </c>
       <c r="C42" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
         <v>116</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>117</v>
       </c>
       <c r="B43">
         <v>4</v>
       </c>
       <c r="C43" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
         <v>118</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>119</v>
       </c>
       <c r="B44">
         <v>8.5</v>
       </c>
       <c r="C44" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
         <v>120</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>121</v>
       </c>
       <c r="B45">
         <v>4.5</v>
       </c>
       <c r="C45" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
         <v>122</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>123</v>
       </c>
       <c r="B46">
         <v>6.5</v>
       </c>
       <c r="C46" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/spreadsheets/Kassadin.xlsx
+++ b/spreadsheets/Kassadin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sunny\champs.gg\spreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\champsgg\completed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D84A46-B32E-49D3-B093-EDD2BED63A48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A78213-E5CF-4CF9-9426-66E223BADF1D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1410" yWindow="3135" windowWidth="16875" windowHeight="10523" tabRatio="991" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35220" yWindow="3390" windowWidth="21525" windowHeight="11835" tabRatio="991" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="127">
   <si>
     <t>id</t>
   </si>
@@ -250,39 +250,6 @@
     <t>Kayle</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>it's a farm lane that Kayle wins as she'll outtrade you if you Riftwalk at her and she lands her point blank Q. Don't feel stressed about letting Kayle scale, because you beat her in a sidelane at stacked ROA + stacked Seraphs. You need Lichbane 3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>rd</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>to beat her at 3, but she's easy to gank.</t>
-    </r>
-  </si>
-  <si>
     <t>LeBlanc</t>
   </si>
   <si>
@@ -379,6 +346,9 @@
     <t>Keep the middle of the lane warded to know where Twisted Fate is heading towards with his ultimate. Use your Q to soak his red card splash damage when waveclearing and when he has no card or didn't lock in a gold, go for R trades. You can chase him down when he's looking for an ult to threaten using your Q to cancel his R.</t>
   </si>
   <si>
+    <t>Vegiar</t>
+  </si>
+  <si>
     <t>Veigar shouldn't really be dying to Kassadin and you're both given a farm lane here. Once he has GLP, you don't want to try to use your R to trade onto him when he has his cage. Sidelane against him as he's a better teamfighter.</t>
   </si>
   <si>
@@ -430,17 +400,20 @@
     <t>She has really high kill pressure on you around levels 4 and 5, so be sure to TP back to avoid getting RNG'd if you're low. You start to beat her at about 2 items just like LeBlanc. Pretty easy to set up a gank on though and you usually win 2v2, so ping your jungler to come.</t>
   </si>
   <si>
-    <t>https://i.imgur.com/drLnX41.jpg</t>
-  </si>
-  <si>
-    <t>Veigar</t>
+    <t>discord</t>
+  </si>
+  <si>
+    <t>it's a farm lane that Kayle wins as she'll outtrade you if you Riftwalk at her and she lands her point blank Q. Don't feel stressed about letting Kayle scale, because you beat her in a sidelane at stacked ROA + stacked Seraphs. You need Lichbane 3rdto beat her at 3, but she's easy to gank.</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/2aooBpl.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -457,9 +430,31 @@
       <charset val="1"/>
     </font>
     <font>
-      <vertAlign val="superscript"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -482,14 +477,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -895,20 +896,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.59765625"/>
-    <col min="2" max="2" width="115.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125"/>
+    <col min="2" max="2" width="115.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9"/>
-    <col min="4" max="4" width="9.59765625"/>
-    <col min="5" max="1025" width="8.59765625"/>
+    <col min="4" max="4" width="9.5703125"/>
+    <col min="5" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -919,7 +920,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -930,7 +931,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -941,7 +942,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -949,7 +950,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -960,7 +961,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -971,7 +972,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -979,37 +980,42 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="B9" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A10" s="1" t="s">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
         <v>24</v>
       </c>
@@ -1021,11 +1027,12 @@
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="B6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B10" r:id="rId3" display="https://www.reddit.com/user/magehunter_skassi" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B11" r:id="rId3" display="https://www.reddit.com/user/magehunter_skassi" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B9" r:id="rId4" xr:uid="{6E0F27E2-59A1-4A09-997D-55D76AE7544B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <drawing r:id="rId4"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId5"/>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -1033,539 +1040,539 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.265625"/>
-    <col min="2" max="2" width="8.59765625"/>
-    <col min="3" max="3" width="255.73046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="1025" width="8.59765625"/>
+    <col min="1" max="1" width="13.28515625"/>
+    <col min="2" max="2" width="8.5703125"/>
+    <col min="3" max="3" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="4">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>30</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="4">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>33</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="4">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="4">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="4" t="s">
         <v>39</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="4">
         <v>6.5</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="4" t="s">
         <v>42</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="4">
         <v>5</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="4" t="s">
         <v>45</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="4">
         <v>6</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="4">
         <v>6.5</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="4">
         <v>4</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="4">
         <v>5</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="4">
         <v>5</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="4">
         <v>4</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="4">
         <v>4</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="4">
         <v>3.5</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="4">
         <v>5.5</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="4">
         <v>4</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="4">
         <v>7</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="4">
         <v>2</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="4">
         <v>4</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="4">
         <v>6</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
+      <c r="B22" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B22">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="4">
+        <v>3</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" s="4">
+        <v>5</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" s="4">
         <v>6.5</v>
       </c>
-      <c r="C22" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>77</v>
-      </c>
-      <c r="B23">
-        <v>3</v>
-      </c>
-      <c r="C23" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
-        <v>79</v>
-      </c>
-      <c r="B24">
-        <v>3.5</v>
-      </c>
-      <c r="C24" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
-        <v>81</v>
-      </c>
-      <c r="B25">
+      <c r="C26" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B28" s="4">
+        <v>9</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" s="4">
+        <v>9</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30" s="4">
+        <v>7</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B31" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B32" s="4">
+        <v>6</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B33" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B34" s="4">
+        <v>7</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B35" s="4">
+        <v>8</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B36" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B37" s="4">
+        <v>6</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B38" s="4">
+        <v>6</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B39" s="4">
+        <v>4</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B40" s="4">
         <v>5</v>
       </c>
-      <c r="C25" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
-        <v>83</v>
-      </c>
-      <c r="B26">
+      <c r="C40" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B41" s="4">
+        <v>5</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B42" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B43" s="4">
+        <v>4</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B44" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B45" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B46" s="4">
         <v>6.5</v>
       </c>
-      <c r="C26" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
-        <v>85</v>
-      </c>
-      <c r="B27">
-        <v>6.5</v>
-      </c>
-      <c r="C27" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
-        <v>87</v>
-      </c>
-      <c r="B28">
-        <v>9</v>
-      </c>
-      <c r="C28" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
-        <v>89</v>
-      </c>
-      <c r="B29">
-        <v>9</v>
-      </c>
-      <c r="C29" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
-        <v>91</v>
-      </c>
-      <c r="B30">
-        <v>7</v>
-      </c>
-      <c r="C30" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
-        <v>93</v>
-      </c>
-      <c r="B31">
-        <v>6.5</v>
-      </c>
-      <c r="C31" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
-        <v>95</v>
-      </c>
-      <c r="B32">
-        <v>6</v>
-      </c>
-      <c r="C32" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
-        <v>97</v>
-      </c>
-      <c r="B33">
-        <v>5.5</v>
-      </c>
-      <c r="C33" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A34" t="s">
-        <v>99</v>
-      </c>
-      <c r="B34">
-        <v>7</v>
-      </c>
-      <c r="C34" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A35" t="s">
-        <v>101</v>
-      </c>
-      <c r="B35">
-        <v>8</v>
-      </c>
-      <c r="C35" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A36" t="s">
-        <v>103</v>
-      </c>
-      <c r="B36">
-        <v>9.5</v>
-      </c>
-      <c r="C36" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A37" t="s">
-        <v>105</v>
-      </c>
-      <c r="B37">
-        <v>6</v>
-      </c>
-      <c r="C37" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A38" t="s">
-        <v>125</v>
-      </c>
-      <c r="B38">
-        <v>6</v>
-      </c>
-      <c r="C38" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A39" t="s">
-        <v>108</v>
-      </c>
-      <c r="B39">
-        <v>4</v>
-      </c>
-      <c r="C39" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A40" t="s">
-        <v>110</v>
-      </c>
-      <c r="B40">
-        <v>5</v>
-      </c>
-      <c r="C40" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A41" t="s">
-        <v>112</v>
-      </c>
-      <c r="B41">
-        <v>5</v>
-      </c>
-      <c r="C41" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A42" t="s">
-        <v>114</v>
-      </c>
-      <c r="B42">
-        <v>4.5</v>
-      </c>
-      <c r="C42" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A43" t="s">
-        <v>116</v>
-      </c>
-      <c r="B43">
-        <v>4</v>
-      </c>
-      <c r="C43" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A44" t="s">
-        <v>118</v>
-      </c>
-      <c r="B44">
-        <v>8.5</v>
-      </c>
-      <c r="C44" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A45" t="s">
-        <v>120</v>
-      </c>
-      <c r="B45">
-        <v>4.5</v>
-      </c>
-      <c r="C45" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A46" t="s">
-        <v>122</v>
-      </c>
-      <c r="B46">
-        <v>6.5</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="C46" s="4" t="s">
         <v>123</v>
       </c>
     </row>

--- a/spreadsheets/Kassadin.xlsx
+++ b/spreadsheets/Kassadin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\champsgg\completed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A78213-E5CF-4CF9-9426-66E223BADF1D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9972CF-51EB-47B6-A928-6FEDE62EA904}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35220" yWindow="3390" windowWidth="21525" windowHeight="11835" tabRatio="991" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="991" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -435,13 +435,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -458,6 +451,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -479,15 +478,15 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -896,7 +895,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -910,7 +909,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -921,7 +920,7 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
@@ -932,7 +931,7 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
@@ -943,7 +942,7 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -951,10 +950,10 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -962,10 +961,10 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -973,7 +972,7 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -981,15 +980,15 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="5" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>126</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -997,7 +996,7 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B10" t="s">
@@ -1005,7 +1004,7 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B11" t="s">
@@ -1025,10 +1024,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B11" r:id="rId3" display="https://www.reddit.com/user/magehunter_skassi" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B9" r:id="rId4" xr:uid="{6E0F27E2-59A1-4A09-997D-55D76AE7544B}"/>
+    <hyperlink ref="B9" r:id="rId1" xr:uid="{6E0F27E2-59A1-4A09-997D-55D76AE7544B}"/>
+    <hyperlink ref="B11" r:id="rId2" display="https://www.reddit.com/user/magehunter_skassi" xr:uid="{9AB8818B-51E3-4534-A9F1-AB1B4D672915}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{8AF0F391-8CF4-4D85-B230-10A7C7A4EFFA}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{7B8BB7EE-DA65-43D7-BC58-1404D0A904D6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId5"/>
@@ -1040,37 +1039,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625"/>
-    <col min="2" max="2" width="8.5703125"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="255.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>30</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -1078,13 +1077,13 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>6</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>33</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -1092,13 +1091,13 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>5</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>36</v>
       </c>
       <c r="H4" s="1" t="s">
@@ -1106,13 +1105,13 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>4</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>39</v>
       </c>
       <c r="H5" s="1" t="s">
@@ -1120,13 +1119,13 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>6.5</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>42</v>
       </c>
       <c r="H6" s="1" t="s">
@@ -1134,13 +1133,13 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>5</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>45</v>
       </c>
       <c r="H7" s="1" t="s">
@@ -1148,431 +1147,431 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>6</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>6.5</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>4</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>5</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>5</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>4</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>4</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>3.5</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <v>5.5</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>4</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="3">
         <v>7</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <v>2</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="3">
         <v>4</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="3">
         <v>6</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="3">
         <v>6.5</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="3">
         <v>3</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="3">
         <v>3.5</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="3">
         <v>5</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="3" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="3">
         <v>6.5</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="3" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="3">
         <v>6.5</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="3" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="3">
         <v>9</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="3">
         <v>9</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="3" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="3">
         <v>7</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="3" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="3">
         <v>6.5</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="3" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="3">
         <v>6</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="3" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="3">
         <v>5.5</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="3" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="3">
         <v>7</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="3">
         <v>8</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="3" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="3">
         <v>9.5</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="3" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37" s="3">
         <v>6</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="3" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38" s="3">
         <v>6</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="3" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39" s="3">
         <v>4</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="3" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40" s="3">
         <v>5</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="3" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41" s="3">
         <v>5</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="3" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42" s="3">
         <v>4.5</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="3" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B43" s="3">
         <v>4</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44" s="3">
         <v>8.5</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="3" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B45" s="3">
         <v>4.5</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="3" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B46" s="3">
         <v>6.5</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="3" t="s">
         <v>123</v>
       </c>
     </row>

--- a/spreadsheets/Kassadin.xlsx
+++ b/spreadsheets/Kassadin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\champsgg\completed\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryantan/projects/champs.gg/spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9972CF-51EB-47B6-A928-6FEDE62EA904}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE18B42-8DB4-B84D-AE4E-F7770A89AD86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="991" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16000" tabRatio="991" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -346,9 +346,6 @@
     <t>Keep the middle of the lane warded to know where Twisted Fate is heading towards with his ultimate. Use your Q to soak his red card splash damage when waveclearing and when he has no card or didn't lock in a gold, go for R trades. You can chase him down when he's looking for an ult to threaten using your Q to cancel his R.</t>
   </si>
   <si>
-    <t>Vegiar</t>
-  </si>
-  <si>
     <t>Veigar shouldn't really be dying to Kassadin and you're both given a farm lane here. Once he has GLP, you don't want to try to use your R to trade onto him when he has his cage. Sidelane against him as he's a better teamfighter.</t>
   </si>
   <si>
@@ -407,6 +404,9 @@
   </si>
   <si>
     <t>https://i.imgur.com/2aooBpl.png</t>
+  </si>
+  <si>
+    <t>Veigar</t>
   </si>
 </sst>
 </file>
@@ -457,6 +457,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -899,16 +900,16 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.5703125"/>
-    <col min="2" max="2" width="115.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5"/>
+    <col min="2" max="2" width="115.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9"/>
-    <col min="4" max="4" width="9.5703125"/>
-    <col min="5" max="1025" width="8.5703125"/>
+    <col min="4" max="4" width="9.5"/>
+    <col min="5" max="1025" width="8.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -919,7 +920,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -930,7 +931,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -941,7 +942,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
@@ -949,7 +950,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
@@ -960,7 +961,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
@@ -971,7 +972,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>16</v>
       </c>
@@ -979,23 +980,23 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>19</v>
       </c>
@@ -1003,7 +1004,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>21</v>
       </c>
@@ -1014,7 +1015,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>24</v>
       </c>
@@ -1040,18 +1041,18 @@
   <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.28515625"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="255.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="1025" width="8.5703125"/>
+    <col min="1" max="1" width="13.33203125"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="255.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="1025" width="8.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -1062,7 +1063,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>29</v>
       </c>
@@ -1076,7 +1077,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
@@ -1090,7 +1091,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>35</v>
       </c>
@@ -1104,7 +1105,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>38</v>
       </c>
@@ -1118,7 +1119,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>41</v>
       </c>
@@ -1132,7 +1133,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>44</v>
       </c>
@@ -1146,7 +1147,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>47</v>
       </c>
@@ -1157,7 +1158,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>49</v>
       </c>
@@ -1168,7 +1169,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>51</v>
       </c>
@@ -1179,7 +1180,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>53</v>
       </c>
@@ -1190,7 +1191,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>55</v>
       </c>
@@ -1201,7 +1202,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>57</v>
       </c>
@@ -1212,7 +1213,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>59</v>
       </c>
@@ -1223,7 +1224,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>61</v>
       </c>
@@ -1234,7 +1235,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>63</v>
       </c>
@@ -1245,7 +1246,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>65</v>
       </c>
@@ -1256,7 +1257,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>67</v>
       </c>
@@ -1267,7 +1268,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>69</v>
       </c>
@@ -1278,7 +1279,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>71</v>
       </c>
@@ -1289,7 +1290,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>73</v>
       </c>
@@ -1297,10 +1298,10 @@
         <v>6</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>74</v>
       </c>
@@ -1311,7 +1312,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>76</v>
       </c>
@@ -1322,7 +1323,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>78</v>
       </c>
@@ -1333,7 +1334,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>80</v>
       </c>
@@ -1344,7 +1345,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>82</v>
       </c>
@@ -1355,7 +1356,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>84</v>
       </c>
@@ -1366,7 +1367,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>86</v>
       </c>
@@ -1377,7 +1378,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>88</v>
       </c>
@@ -1388,7 +1389,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>90</v>
       </c>
@@ -1399,7 +1400,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>92</v>
       </c>
@@ -1410,7 +1411,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>94</v>
       </c>
@@ -1421,7 +1422,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>96</v>
       </c>
@@ -1432,7 +1433,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>98</v>
       </c>
@@ -1443,7 +1444,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>100</v>
       </c>
@@ -1454,7 +1455,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>102</v>
       </c>
@@ -1465,7 +1466,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>104</v>
       </c>
@@ -1476,103 +1477,103 @@
         <v>105</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="B38" s="3">
         <v>6</v>
       </c>
       <c r="C38" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="B39" s="3">
         <v>4</v>
       </c>
       <c r="C39" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
         <v>109</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>110</v>
       </c>
       <c r="B40" s="3">
         <v>5</v>
       </c>
       <c r="C40" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>112</v>
       </c>
       <c r="B41" s="3">
         <v>5</v>
       </c>
       <c r="C41" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
         <v>113</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>114</v>
       </c>
       <c r="B42" s="3">
         <v>4.5</v>
       </c>
       <c r="C42" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
         <v>115</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>116</v>
       </c>
       <c r="B43" s="3">
         <v>4</v>
       </c>
       <c r="C43" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
         <v>117</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>118</v>
       </c>
       <c r="B44" s="3">
         <v>8.5</v>
       </c>
       <c r="C44" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
         <v>119</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>120</v>
       </c>
       <c r="B45" s="3">
         <v>4.5</v>
       </c>
       <c r="C45" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
         <v>121</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="B46" s="3">
         <v>6.5</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
